--- a/biology/Botanique/Seigneur_d'Esperen/Seigneur_d'Esperen.xlsx
+++ b/biology/Botanique/Seigneur_d'Esperen/Seigneur_d'Esperen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Seigneur_d%27Esperen</t>
+          <t>Seigneur_d'Esperen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Seigneur d'Esperen est une variété ancienne  de poires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Seigneur_d%27Esperen</t>
+          <t>Seigneur_d'Esperen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Belle lucrative.
 Bergamotte Fiévée.
@@ -521,7 +535,7 @@
 Fondante de Maubeuge.
 Grésillier.
 Esperen,
-Seigneur[1].</t>
+Seigneur.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Seigneur_d%27Esperen</t>
+          <t>Seigneur_d'Esperen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été obtenue par le major Esperen de Malines, en Belgique. La première fructification date de 1827[2]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été obtenue par le major Esperen de Malines, en Belgique. La première fructification date de 1827. »
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seigneur_d%27Esperen</t>
+          <t>Seigneur_d'Esperen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,12 +598,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Les rameaux sont assez grêles, allongés, un peu étalés, brun noisette ; à lenticelles petites et saillantes.
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rameaux sont assez grêles, allongés, un peu étalés, brun noisette ; à lenticelles petites et saillantes.
 Yeux moyens, coniques, pointus, écartés du rameau.
-Fruit d'amateur[3].
-Fruit
-Moyen ou assez gros, arrondi conique ou courtement turbiné.
+Fruit d'amateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Seigneur_d'Esperen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Seigneur_d%27Esperen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moyen ou assez gros, arrondi conique ou courtement turbiné.
 Épiderme rude, fin, jaune clair, granité marbré de fauve, d'une teinte plus chaude à l'insolation.
 Pédicelle court, gros, charnu, implanté droit.
 Œil petit, ouvert dans une large dépression.
@@ -598,34 +654,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Seigneur_d%27Esperen</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Seigneur_d'Esperen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Seigneur_d%27Esperen</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété réussit très bien sur cognassier et sur franc, se prête à toutes les formes et n'est pas très délicate sur la nature du sol et des expositions.
-Variété très résistante à la tavelure, on pourrait la conseiller pour la culture intensive, blettit facilement, à surveiller pour la cueillette[2].
+Variété très résistante à la tavelure, on pourrait la conseiller pour la culture intensive, blettit facilement, à surveiller pour la cueillette.
 </t>
         </is>
       </c>
